--- a/docs/Mapping_casi_uso/3_dec_use_case.xlsx
+++ b/docs/Mapping_casi_uso/3_dec_use_case.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="700">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="710">
   <si>
     <t>ID USECASE</t>
   </si>
@@ -974,6 +974,12 @@
     <t>Trascr_027</t>
   </si>
   <si>
+    <t>1317</t>
+  </si>
+  <si>
+    <t>Trascr_038</t>
+  </si>
+  <si>
     <t>1318</t>
   </si>
   <si>
@@ -1748,6 +1754,12 @@
     <t>Sciogl_UnCiv_007</t>
   </si>
   <si>
+    <t>448000</t>
+  </si>
+  <si>
+    <t>Sciogl_UnCiv_008</t>
+  </si>
+  <si>
     <t>449999</t>
   </si>
   <si>
@@ -1850,6 +1862,12 @@
     <t>Citt_007</t>
   </si>
   <si>
+    <t>51111</t>
+  </si>
+  <si>
+    <t>Citt_051</t>
+  </si>
+  <si>
     <t>51201</t>
   </si>
   <si>
@@ -1968,6 +1986,18 @@
   </si>
   <si>
     <t>Citt_046</t>
+  </si>
+  <si>
+    <t>52155</t>
+  </si>
+  <si>
+    <t>Citt_050</t>
+  </si>
+  <si>
+    <t>52156</t>
+  </si>
+  <si>
+    <t>Citt_053</t>
   </si>
   <si>
     <t>52211</t>
@@ -2170,7 +2200,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C350"/>
+  <dimension ref="A1:C355"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -4980,6 +5010,46 @@
         <v>699</v>
       </c>
     </row>
+    <row r="351">
+      <c r="A351" s="2" t="s">
+        <v>700</v>
+      </c>
+      <c r="B351" s="2" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" s="2" t="s">
+        <v>702</v>
+      </c>
+      <c r="B352" s="2" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="B353" s="2" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="B354" s="2" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" s="2" t="s">
+        <v>708</v>
+      </c>
+      <c r="B355" s="2" t="s">
+        <v>709</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
